--- a/POI With POM/AddressBook.xlsx
+++ b/POI With POM/AddressBook.xlsx
@@ -4,13 +4,54 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8145"/>
+    <workbookView windowWidth="19170" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="customervalid" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>Velu</t>
+  </si>
+  <si>
+    <t>Rao</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31,7 +72,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -39,13 +87,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -55,6 +96,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,6 +115,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,31 +130,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,21 +145,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -158,8 +184,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,17 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,36 +456,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +484,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -481,10 +507,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,130 +543,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,14 +991,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="15.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
